--- a/pop-stats-summarized.xlsx
+++ b/pop-stats-summarized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="14400" windowHeight="9980" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="14400" windowHeight="9980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t># Pop ID</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>pop Fst</t>
+  </si>
+  <si>
+    <t>no bp 95</t>
   </si>
 </sst>
 </file>
@@ -113,8 +116,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,19 +143,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -746,6 +765,93 @@
         <v>0.96399999999999997</v>
       </c>
     </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>12456</v>
+      </c>
+      <c r="D14">
+        <v>12132</v>
+      </c>
+      <c r="E14">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.75970000000000004</v>
+      </c>
+      <c r="G14">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.1171</v>
+      </c>
+      <c r="I14">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>12456</v>
+      </c>
+      <c r="D15">
+        <v>11431</v>
+      </c>
+      <c r="E15">
+        <v>0.2422</v>
+      </c>
+      <c r="F15">
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="G15">
+        <v>2.8E-3</v>
+      </c>
+      <c r="H15">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
